--- a/IPM.xlsx
+++ b/IPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DF617-61BE-4D9B-BDEB-38A3CEB04683}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D99F87-CC60-40E4-8B6E-66A0E6F785EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{40B7943D-8E02-45B6-A0CC-5AF7CCF4F1F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Intervalo de Confiança</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>tamanho da amostra</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -199,6 +205,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,25 +526,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC247D32-A791-4790-8217-EFE3184E390B}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -553,7 +571,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -597,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -610,8 +628,8 @@
       <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="7">
-        <v>8.1944444444444445E-2</v>
+      <c r="E3" s="11">
+        <v>118</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -622,8 +640,8 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>2.013888888888889E-2</v>
+      <c r="I3" s="11">
+        <v>29</v>
       </c>
       <c r="J3" s="6">
         <v>5</v>
@@ -634,14 +652,15 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="7">
-        <v>2.013888888888889E-2</v>
+      <c r="M3" s="9">
+        <v>29</v>
       </c>
       <c r="N3" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -654,8 +673,8 @@
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="7">
-        <v>4.0972222222222222E-2</v>
+      <c r="E4" s="11">
+        <v>59</v>
       </c>
       <c r="F4" s="6">
         <v>4</v>
@@ -666,8 +685,8 @@
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
-        <v>2.6388888888888889E-2</v>
+      <c r="I4" s="11">
+        <v>38</v>
       </c>
       <c r="J4" s="6">
         <v>5</v>
@@ -678,14 +697,15 @@
       <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="7">
-        <v>2.361111111111111E-2</v>
+      <c r="M4" s="9">
+        <v>34</v>
       </c>
       <c r="N4" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -698,8 +718,8 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
-        <v>2.4305555555555556E-2</v>
+      <c r="E5" s="11">
+        <v>35</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
@@ -710,8 +730,8 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>2.0833333333333332E-2</v>
+      <c r="I5" s="11">
+        <v>30</v>
       </c>
       <c r="J5" s="6">
         <v>4</v>
@@ -722,14 +742,15 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="7">
-        <v>1.6666666666666666E-2</v>
+      <c r="M5" s="9">
+        <v>24</v>
       </c>
       <c r="N5" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -742,8 +763,8 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
-        <v>2.4999999999999998E-2</v>
+      <c r="E6" s="11">
+        <v>36</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
@@ -754,8 +775,8 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>1.4583333333333332E-2</v>
+      <c r="I6" s="11">
+        <v>21</v>
       </c>
       <c r="J6" s="6">
         <v>5</v>
@@ -766,14 +787,15 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="M6" s="7">
-        <v>1.7361111111111112E-2</v>
+      <c r="M6" s="9">
+        <v>25</v>
       </c>
       <c r="N6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -783,9 +805,11 @@
       <c r="C7" s="1">
         <v>23</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="8">
-        <v>2.2916666666666669E-2</v>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -793,9 +817,11 @@
       <c r="G7" s="1">
         <v>15</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="8">
-        <v>1.3888888888888888E-2</v>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
@@ -803,15 +829,18 @@
       <c r="K7" s="1">
         <v>14</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="8">
-        <v>1.5972222222222224E-2</v>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>23</v>
       </c>
       <c r="N7" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -821,9 +850,11 @@
       <c r="C8" s="1">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8">
-        <v>2.0833333333333332E-2</v>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -831,9 +862,11 @@
       <c r="G8" s="1">
         <v>23</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="8">
-        <v>1.8055555555555557E-2</v>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>26</v>
       </c>
       <c r="J8" s="1">
         <v>4</v>
@@ -841,15 +874,18 @@
       <c r="K8" s="1">
         <v>27</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="8">
-        <v>3.4722222222222224E-2</v>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>50</v>
       </c>
       <c r="N8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -859,9 +895,11 @@
       <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="8">
-        <v>1.8749999999999999E-2</v>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -869,9 +907,11 @@
       <c r="G9" s="1">
         <v>14</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="8">
-        <v>1.4583333333333332E-2</v>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>21</v>
       </c>
       <c r="J9" s="1">
         <v>5</v>
@@ -879,15 +919,18 @@
       <c r="K9" s="1">
         <v>20</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="8">
-        <v>2.5694444444444447E-2</v>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>37</v>
       </c>
       <c r="N9" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -897,9 +940,11 @@
       <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8">
-        <v>3.2638888888888891E-2</v>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>47</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -907,9 +952,11 @@
       <c r="G10" s="1">
         <v>16</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="8">
-        <v>1.9444444444444445E-2</v>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>28</v>
       </c>
       <c r="J10" s="1">
         <v>5</v>
@@ -917,15 +964,18 @@
       <c r="K10" s="1">
         <v>14</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="8">
-        <v>1.7361111111111112E-2</v>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>25</v>
       </c>
       <c r="N10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -935,9 +985,11 @@
       <c r="C11" s="1">
         <v>23</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="8">
-        <v>2.5694444444444447E-2</v>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -945,9 +997,11 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="8">
-        <v>1.3194444444444444E-2</v>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>19</v>
       </c>
       <c r="J11" s="1">
         <v>5</v>
@@ -955,15 +1009,18 @@
       <c r="K11" s="1">
         <v>23</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="8">
-        <v>1.4583333333333332E-2</v>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>21</v>
       </c>
       <c r="N11" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -973,9 +1030,11 @@
       <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="8">
-        <v>3.5416666666666666E-2</v>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -983,9 +1042,11 @@
       <c r="G12" s="1">
         <v>16</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="8">
-        <v>1.6666666666666666E-2</v>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>24</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
@@ -993,15 +1054,18 @@
       <c r="K12" s="1">
         <v>16</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="8">
-        <v>1.3888888888888888E-2</v>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>20</v>
       </c>
       <c r="N12" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1078,8 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="8">
-        <v>4.9999999999999996E-2</v>
+      <c r="E13" s="12">
+        <v>72</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
@@ -1026,8 +1090,8 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
-        <v>1.7361111111111112E-2</v>
+      <c r="I13" s="12">
+        <v>25</v>
       </c>
       <c r="J13" s="1">
         <v>5</v>
@@ -1038,14 +1102,15 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="8">
-        <v>2.2222222222222223E-2</v>
+      <c r="M13" s="9">
+        <v>32</v>
       </c>
       <c r="N13" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1123,8 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
-        <v>1.8055555555555557E-2</v>
+      <c r="E14" s="12">
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1070,8 +1135,8 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="8">
-        <v>1.1111111111111112E-2</v>
+      <c r="I14" s="12">
+        <v>16</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -1082,14 +1147,15 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="8">
-        <v>1.9444444444444445E-2</v>
+      <c r="M14" s="9">
+        <v>28</v>
       </c>
       <c r="N14" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1102,8 +1168,8 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="8">
-        <v>2.7083333333333334E-2</v>
+      <c r="E15" s="12">
+        <v>39</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -1114,8 +1180,8 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="8">
-        <v>1.5277777777777777E-2</v>
+      <c r="I15" s="12">
+        <v>22</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -1126,14 +1192,15 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="8">
-        <v>1.5277777777777777E-2</v>
+      <c r="M15" s="9">
+        <v>22</v>
       </c>
       <c r="N15" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1213,8 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="8">
-        <v>2.5694444444444447E-2</v>
+      <c r="E16" s="12">
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>4</v>
@@ -1158,8 +1225,8 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="8">
-        <v>9.0277777777777787E-3</v>
+      <c r="I16" s="12">
+        <v>13</v>
       </c>
       <c r="J16" s="1">
         <v>5</v>
@@ -1170,14 +1237,15 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="8">
-        <v>1.5277777777777777E-2</v>
+      <c r="M16" s="9">
+        <v>22</v>
       </c>
       <c r="N16" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1258,8 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
-        <v>3.3333333333333333E-2</v>
+      <c r="E17" s="12">
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -1202,8 +1270,8 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="8">
-        <v>2.013888888888889E-2</v>
+      <c r="I17" s="12">
+        <v>29</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
@@ -1214,14 +1282,15 @@
       <c r="L17" s="10">
         <v>1</v>
       </c>
-      <c r="M17" s="8">
-        <v>1.8055555555555557E-2</v>
+      <c r="M17" s="9">
+        <v>26</v>
       </c>
       <c r="N17" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1236,7 +1305,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1251,7 +1320,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1265,8 +1334,14 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
@@ -1290,54 +1365,84 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>0.05</v>
+      </c>
+      <c r="P21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <f>AVERAGE(C3:C17)</f>
+        <v>23.866666666666667</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <f>AVERAGE(D3:D17)</f>
+        <v>2</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="12">
+        <f>AVERAGE(E3:E17)</f>
+        <v>44.866666666666667</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <f>AVERAGE(F3:F17)</f>
+        <v>3.7333333333333334</v>
+      </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <f>_xlfn.STDEV.S(C3:C17)</f>
+        <v>8.5428889950035281</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <f>_xlfn.STDEV.S(D3:D17)</f>
+        <v>1.1338934190276817</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <f>_xlfn.STDEV.S(E3:E17)</f>
+        <v>23.90118546571836</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <f>_xlfn.STDEV.S(F3:F17)</f>
+        <v>0.88371510168853695</v>
+      </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
         <v>14</v>
@@ -1360,7 +1465,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>15</v>
@@ -1383,30 +1488,54 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <f>C22-_xlfn.CONFIDENCE.T(0.05,C23,15)</f>
+        <v>19.135772429596067</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C22+_xlfn.CONFIDENCE.T(0.05,C23,15)</f>
+        <v>28.597560903737268</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26">
+        <f t="shared" ref="F26:M26" si="0">F22-_xlfn.CONFIDENCE.T(0.05,F23,15)</f>
+        <v>1.3720707544405917</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:M26" si="1">F22+_xlfn.CONFIDENCE.T(0.05,F23,15)</f>
+        <v>2.6279292455594083</v>
+      </c>
       <c r="H26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="I26">
+        <f t="shared" ref="I26:M26" si="2">I22-_xlfn.CONFIDENCE.T(0.05,I23,15)</f>
+        <v>31.630631334233335</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" ref="J26:M26" si="3">I22+_xlfn.CONFIDENCE.T(0.05,I23,15)</f>
+        <v>58.102701999099999</v>
+      </c>
       <c r="K26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f t="shared" ref="L26:M26" si="4">L22-_xlfn.CONFIDENCE.T(0.05,L23,15)</f>
+        <v>3.2439482220161011</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26" si="5">L22+_xlfn.CONFIDENCE.T(0.05,L23,15)</f>
+        <v>4.2227184446505657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1421,6 +1550,391 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(G3:G17)</f>
+        <v>18</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1">
+        <f>AVERAGE(H3:H17)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="12">
+        <f>AVERAGE(I3:I17)</f>
+        <v>24.066666666666666</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1">
+        <f>AVERAGE(J3:J17)</f>
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <f>_xlfn.STDEV.S(G3:G17)</f>
+        <v>3.525417908358019</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1">
+        <f>_xlfn.STDEV.S(H3:H17)</f>
+        <v>0.41403933560541251</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="12">
+        <f>_xlfn.STDEV.S(I3:I17)</f>
+        <v>6.2731476112379889</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1">
+        <f>_xlfn.STDEV.S(J3:J17)</f>
+        <v>0.35186577527449842</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C31-_xlfn.CONFIDENCE.T(0.05,C32,15)</f>
+        <v>16.047688636049102</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C31+_xlfn.CONFIDENCE.T(0.05,C32,15)</f>
+        <v>19.952311363950898</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ref="F35:M35" si="6">F31-_xlfn.CONFIDENCE.T(0.05,F32,15)</f>
+        <v>-2.9287341540059075E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35:M35" si="7">F31+_xlfn.CONFIDENCE.T(0.05,F32,15)</f>
+        <v>0.4292873415400591</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ref="I35:M35" si="8">I31-_xlfn.CONFIDENCE.T(0.05,I32,15)</f>
+        <v>20.592713312051323</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" ref="J35:M35" si="9">I31+_xlfn.CONFIDENCE.T(0.05,I32,15)</f>
+        <v>27.54062002128201</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" ref="L35:M35" si="10">L31-_xlfn.CONFIDENCE.T(0.05,L32,15)</f>
+        <v>4.6718098952112372</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" ref="M35" si="11">L31+_xlfn.CONFIDENCE.T(0.05,L32,15)</f>
+        <v>5.0615234381220953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <f>AVERAGE(K3:K17)</f>
+        <v>18.533333333333335</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1">
+        <f>AVERAGE(L3:L17)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="12">
+        <f>AVERAGE(M3:M17)</f>
+        <v>27.866666666666667</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="1">
+        <f>AVERAGE(N3:N17)</f>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1">
+        <f>_xlfn.STDEV.S(K3:K17)</f>
+        <v>4.9980948751451688</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1">
+        <f>_xlfn.STDEV.S(L3:L17)</f>
+        <v>0.35186577527449842</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="12">
+        <f>_xlfn.STDEV.S(M3:M17)</f>
+        <v>7.8637201907300378</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="1">
+        <f>_xlfn.STDEV.S(N3:N17)</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C40-_xlfn.CONFIDENCE.T(0.05,C41,15)</f>
+        <v>15.765480648487976</v>
+      </c>
+      <c r="D44" s="1">
+        <f>C40+_xlfn.CONFIDENCE.T(0.05,C41,15)</f>
+        <v>21.301186018178694</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1">
+        <f>F40-_xlfn.CONFIDENCE.T(0.05,F41,15)</f>
+        <v>-6.1523438122095819E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <f>F40+_xlfn.CONFIDENCE.T(0.05,F41,15)</f>
+        <v>0.32819010478876248</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1">
+        <f>I40-_xlfn.CONFIDENCE.T(0.05,I41,15)</f>
+        <v>23.51188357700941</v>
+      </c>
+      <c r="J44" s="1">
+        <f>I40+_xlfn.CONFIDENCE.T(0.05,I41,15)</f>
+        <v>32.221449756323928</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="1">
+        <f>L40-_xlfn.CONFIDENCE.T(0.05,L41,15)</f>
+        <v>4.7903475541388136</v>
+      </c>
+      <c r="M44" s="1">
+        <f>L40+_xlfn.CONFIDENCE.T(0.05,L41,15)</f>
+        <v>5.0763191125278535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IPM.xlsx
+++ b/IPM.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D99F87-CC60-40E4-8B6E-66A0E6F785EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFD06C-5422-4ECC-8E3B-446C010206B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{40B7943D-8E02-45B6-A0CC-5AF7CCF4F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Folha1!$P$5:$P$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Folha1!$Q$5:$Q$12</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -83,12 +87,36 @@
   <si>
     <t>tamanho da amostra</t>
   </si>
+  <si>
+    <t>]10;20[</t>
+  </si>
+  <si>
+    <t>[20;30[</t>
+  </si>
+  <si>
+    <t>[30;40[</t>
+  </si>
+  <si>
+    <t>[40;50[</t>
+  </si>
+  <si>
+    <t>[50;60[</t>
+  </si>
+  <si>
+    <t>[60;70[</t>
+  </si>
+  <si>
+    <t>[70;80[</t>
+  </si>
+  <si>
+    <t>[80;INF[</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +133,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -193,12 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -212,6 +239,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +256,2715 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Tarefa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 1- Tempo</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$P$5:$P$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>]10;20[</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[20;30[</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[30;40[</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[40;50[</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[50;60[</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[60;70[</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[70;80[</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[80;INF[</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$5:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4B2-40C2-A543-6C557DFB0834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544497944"/>
+        <c:axId val="544500240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544497944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544500240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544500240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544497944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Tarefa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 2- Tempo</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Folha1!$S$5:$S$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Folha1!$S$5:$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>]10;20[</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[20;30[</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[30;40[</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[40;50[</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Folha1!$T$5:$T$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Folha1!$T$5:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F989-4633-99D0-680E3332F30C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="605874304"/>
+        <c:axId val="605879880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="605874304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605879880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605879880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605874304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Folha1!$V$5:$V$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Folha1!$V$5:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>]10;20[</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[20;30[</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[30;40[</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[40;50[</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[50;60[</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Folha1!$W$5:$W$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Folha1!$W$5:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5A2-4FC0-AEC5-1CCD96244A07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="570827808"/>
+        <c:axId val="605875616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="570827808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605875616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605875616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570827808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47795672-C596-42F2-91F2-CCFB7989AEFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26ED9E61-BD70-44A3-A6F8-DA6477EBF703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5146134-0570-4E80-BB2F-C8B05971FF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC247D32-A791-4790-8217-EFE3184E390B}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="P29" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +3287,7 @@
     <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -571,7 +3309,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -615,7 +3353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -628,7 +3366,7 @@
       <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>118</v>
       </c>
       <c r="F3" s="6">
@@ -640,7 +3378,7 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>29</v>
       </c>
       <c r="J3" s="6">
@@ -652,15 +3390,14 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>29</v>
       </c>
       <c r="N3" s="6">
         <v>5</v>
       </c>
-      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -673,7 +3410,7 @@
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>59</v>
       </c>
       <c r="F4" s="6">
@@ -685,7 +3422,7 @@
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>38</v>
       </c>
       <c r="J4" s="6">
@@ -697,15 +3434,26 @@
       <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>34</v>
       </c>
       <c r="N4" s="6">
         <v>5</v>
       </c>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="S4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="V4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -718,7 +3466,7 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>35</v>
       </c>
       <c r="F5" s="6">
@@ -730,7 +3478,7 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>30</v>
       </c>
       <c r="J5" s="6">
@@ -742,15 +3490,32 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>24</v>
       </c>
       <c r="N5" s="6">
         <v>5</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="13">
+        <v>3</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -763,7 +3528,7 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>36</v>
       </c>
       <c r="F6" s="6">
@@ -775,7 +3540,7 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>21</v>
       </c>
       <c r="J6" s="6">
@@ -787,15 +3552,32 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>25</v>
       </c>
       <c r="N6" s="6">
         <v>5</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="13">
+        <v>10</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -808,7 +3590,7 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>33</v>
       </c>
       <c r="F7" s="1">
@@ -820,7 +3602,7 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>20</v>
       </c>
       <c r="J7" s="1">
@@ -832,15 +3614,32 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>23</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <v>5</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="P7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>8</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="13">
+        <v>2</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -853,7 +3652,7 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>30</v>
       </c>
       <c r="F8" s="1">
@@ -865,7 +3664,7 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>26</v>
       </c>
       <c r="J8" s="1">
@@ -877,15 +3676,32 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>50</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="7">
         <v>5</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -898,7 +3714,7 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>27</v>
       </c>
       <c r="F9" s="1">
@@ -910,7 +3726,7 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>21</v>
       </c>
       <c r="J9" s="1">
@@ -922,15 +3738,32 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>37</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="7">
         <v>5</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>2</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -943,7 +3776,7 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>47</v>
       </c>
       <c r="F10" s="1">
@@ -955,7 +3788,7 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>28</v>
       </c>
       <c r="J10" s="1">
@@ -967,15 +3800,32 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>25</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>5</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -988,7 +3838,7 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>37</v>
       </c>
       <c r="F11" s="1">
@@ -1000,7 +3850,7 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>19</v>
       </c>
       <c r="J11" s="1">
@@ -1012,15 +3862,32 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>21</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>4</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +3900,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>51</v>
       </c>
       <c r="F12" s="1">
@@ -1045,7 +3912,7 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>24</v>
       </c>
       <c r="J12" s="1">
@@ -1057,15 +3924,32 @@
       <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>20</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>5</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +3962,7 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>72</v>
       </c>
       <c r="F13" s="1">
@@ -1090,7 +3974,7 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>25</v>
       </c>
       <c r="J13" s="1">
@@ -1102,15 +3986,29 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="7">
         <v>32</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <v>5</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="10">
+        <f>SUM(Q5:Q12)</f>
+        <v>15</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13">
+        <f>SUM(T5:T12)</f>
+        <v>15</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13">
+        <f>SUM(W5:W12)</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +4021,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>26</v>
       </c>
       <c r="F14" s="1">
@@ -1135,7 +4033,7 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>16</v>
       </c>
       <c r="J14" s="1">
@@ -1147,15 +4045,14 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>28</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>5</v>
       </c>
-      <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +4065,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>39</v>
       </c>
       <c r="F15" s="1">
@@ -1180,7 +4077,7 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>22</v>
       </c>
       <c r="J15" s="1">
@@ -1192,15 +4089,15 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="7">
         <v>22</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>5</v>
       </c>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +4110,7 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>33</v>
       </c>
       <c r="F16" s="1">
@@ -1225,7 +4122,7 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>13</v>
       </c>
       <c r="J16" s="1">
@@ -1237,13 +4134,13 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>22</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>5</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1258,7 +4155,7 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>30</v>
       </c>
       <c r="F17" s="1">
@@ -1270,7 +4167,7 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>29</v>
       </c>
       <c r="J17" s="1">
@@ -1279,31 +4176,41 @@
       <c r="K17" s="1">
         <v>13</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>1</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>26</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <v>5</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <f>13/15*100</f>
+        <v>86.666666666666671</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <f>3/15*100</f>
+        <v>20</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <f>2/15*100</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="M18" s="1"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1393,7 +4300,7 @@
       <c r="H22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <f>AVERAGE(E3:E17)</f>
         <v>44.866666666666667</v>
       </c>
@@ -1551,7 +4458,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1570,7 +4477,7 @@
       <c r="H30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
         <v>8</v>
@@ -1599,7 +4506,7 @@
       <c r="H31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="10">
         <f>AVERAGE(I3:I17)</f>
         <v>24.066666666666666</v>
       </c>
@@ -1634,7 +4541,7 @@
       <c r="H32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="10">
         <f>_xlfn.STDEV.S(I3:I17)</f>
         <v>6.2731476112379889</v>
       </c>
@@ -1663,7 +4570,7 @@
       <c r="H33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="1"/>
       <c r="K33" s="5" t="s">
         <v>14</v>
@@ -1742,10 +4649,10 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="13"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -1764,7 +4671,7 @@
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
         <v>8</v>
@@ -1793,7 +4700,7 @@
       <c r="H40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <f>AVERAGE(M3:M17)</f>
         <v>27.866666666666667</v>
       </c>
@@ -1828,7 +4735,7 @@
       <c r="H41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="10">
         <f>_xlfn.STDEV.S(M3:M17)</f>
         <v>7.8637201907300378</v>
       </c>
@@ -1857,7 +4764,7 @@
       <c r="H42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="1"/>
       <c r="K42" s="5" t="s">
         <v>14</v>
@@ -1880,7 +4787,7 @@
       <c r="H43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="12"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="1"/>
       <c r="K43" s="5" t="s">
         <v>15</v>
@@ -1938,5 +4845,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>